--- a/data/finalizacoes.xlsx
+++ b/data/finalizacoes.xlsx
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1040,11 +1040,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1361,7 +1361,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="B6" t="n">
